--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_PL0001_offset.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_PL0001_offset.xlsx
@@ -1697,13 +1697,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D9" s="4">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="E9" s="4">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
